--- a/Stocks/JETAIRWAYS.xlsx
+++ b/Stocks/JETAIRWAYS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>526.85</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>593.95862553768166</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>586.2288035627796</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>47.385685061286466</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.2999999999999545</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>12.549999999999955</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.18326693227091337</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>585.32422121986383</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>6.8877416195012984</v>
       </c>
       <c r="Y67">
         <v>10.355192887617141</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>574.20000000000005</v>
+      </c>
+      <c r="D83">
+        <v>584.9</v>
+      </c>
+      <c r="E83">
+        <v>570.65</v>
+      </c>
+      <c r="F83">
+        <v>573.04999999999995</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>576.19999999999993</v>
+      </c>
+      <c r="H83">
+        <v>573.0366148675364</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>584.12912048317912</v>
+      </c>
+      <c r="K83">
+        <v>564.37914347303001</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>47.140030601232738</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>2.3999999999999773</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>14.25</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.16842105263157736</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>577.15248822760839</v>
+      </c>
+      <c r="W83">
+        <v>581.56153624751573</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-4.4090480199073454</v>
+      </c>
+      <c r="Y83">
+        <v>-1.6625557976152037</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>569.5</v>
+      </c>
+      <c r="D84">
+        <v>572.35</v>
+      </c>
+      <c r="E84">
+        <v>543.79999999999995</v>
+      </c>
+      <c r="F84">
+        <v>545.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>553.88333333333333</v>
+      </c>
+      <c r="H84">
+        <v>563.45997410043492</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>581.51153815358373</v>
+      </c>
+      <c r="K84">
+        <v>559.80600047902328</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>25.811418674355817</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.7000000000000455</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>28.550000000000068</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>5.9544658493871853E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>572.28287465413018</v>
+      </c>
+      <c r="W84">
+        <v>578.89031134029233</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-6.6074366861621456</v>
+      </c>
+      <c r="Y84">
+        <v>-2.6515319753245921</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>546.04999999999995</v>
+      </c>
+      <c r="D85">
+        <v>564.65</v>
+      </c>
+      <c r="E85">
+        <v>546.04999999999995</v>
+      </c>
+      <c r="F85">
+        <v>559.04999999999995</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>556.58333333333326</v>
+      </c>
+      <c r="H85">
+        <v>560.02165371688409</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>577.76452967500961</v>
+      </c>
+      <c r="K85">
+        <v>556.74911148368471</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>41.956901165099083</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>18.600000000000023</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.69892473118279486</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>570.24704778426394</v>
+      </c>
+      <c r="W85">
+        <v>577.42065864841879</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-7.1736108641548526</v>
+      </c>
+      <c r="Y85">
+        <v>-3.5559477530906443</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>563.35</v>
+      </c>
+      <c r="D86">
+        <v>582.6</v>
+      </c>
+      <c r="E86">
+        <v>556.4</v>
+      </c>
+      <c r="F86">
+        <v>579</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>572.66666666666663</v>
+      </c>
+      <c r="H86">
+        <v>566.34416019177536</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>578.83907863611864</v>
+      </c>
+      <c r="K86">
+        <v>556.67153115397696</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>58.556129184030084</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>22.600000000000023</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>26.200000000000045</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.86259541984732757</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>571.59365581745408</v>
+      </c>
+      <c r="W86">
+        <v>577.53764689668412</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-5.9439910792300452</v>
+      </c>
+      <c r="Y86">
+        <v>-4.0335564183185246</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>579</v>
+      </c>
+      <c r="D87">
+        <v>584.95000000000005</v>
+      </c>
+      <c r="E87">
+        <v>572</v>
+      </c>
+      <c r="F87">
+        <v>577.4</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>578.11666666666667</v>
+      </c>
+      <c r="H87">
+        <v>572.23041342922102</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>580.19706116142561</v>
+      </c>
+      <c r="K87">
+        <v>560.07785756420435</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>56.924126857636146</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>12.950000000000045</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.41698841698841377</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>572.48693953784573</v>
+      </c>
+      <c r="W87">
+        <v>577.52745083026309</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-5.0405112924173636</v>
+      </c>
+      <c r="Y87">
+        <v>-4.2349473931382926</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>575.6</v>
+      </c>
+      <c r="D88">
+        <v>576.15</v>
+      </c>
+      <c r="E88">
+        <v>559.6</v>
+      </c>
+      <c r="F88">
+        <v>568.6</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>568.11666666666667</v>
+      </c>
+      <c r="H88">
+        <v>570.17354004794379</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>579.29771423666432</v>
+      </c>
+      <c r="K88">
+        <v>559.97166699438117</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>47.77071759211173</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>16.549999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.54380664652568123</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>571.88894883971557</v>
+      </c>
+      <c r="W88">
+        <v>576.86615817616951</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-4.9772093364539387</v>
+      </c>
+      <c r="Y88">
+        <v>-4.3833997818014216</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>571</v>
+      </c>
+      <c r="D89">
+        <v>582.79999999999995</v>
+      </c>
+      <c r="E89">
+        <v>569.1</v>
+      </c>
+      <c r="F89">
+        <v>577</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>576.30000000000007</v>
+      </c>
+      <c r="H89">
+        <v>573.23677002397199</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>580.07599996185002</v>
+      </c>
+      <c r="K89">
+        <v>562.00018544007423</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>56.178482223109071</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>13.699999999999932</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.57664233576642454</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>572.67526440283621</v>
+      </c>
+      <c r="W89">
+        <v>576.87607238534213</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-4.2008079825059212</v>
+      </c>
+      <c r="Y89">
+        <v>-4.3468814219423217</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>576.9</v>
+      </c>
+      <c r="D90">
+        <v>584.9</v>
+      </c>
+      <c r="E90">
+        <v>571</v>
+      </c>
+      <c r="F90">
+        <v>581</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>578.9666666666667</v>
+      </c>
+      <c r="H90">
+        <v>576.10171834531934</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>581.14799997032776</v>
+      </c>
+      <c r="K90">
+        <v>564.00014423116886</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>60.010304049299471</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>13.899999999999977</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.71942446043165587</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>573.95599295624606</v>
+      </c>
+      <c r="W90">
+        <v>577.18154850494636</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-3.2255555487002994</v>
+      </c>
+      <c r="Y90">
+        <v>-4.1226162472939176</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>590</v>
+      </c>
+      <c r="D91">
+        <v>597.54999999999995</v>
+      </c>
+      <c r="E91">
+        <v>574.04999999999995</v>
+      </c>
+      <c r="F91">
+        <v>576</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>582.5333333333333</v>
+      </c>
+      <c r="H91">
+        <v>579.31752583932632</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>584.79288886581048</v>
+      </c>
+      <c r="K91">
+        <v>566.2334455131313</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>52.796811130144661</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.9500000000000455</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>23.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>8.2978723404257257E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>574.27045557836209</v>
+      </c>
+      <c r="W91">
+        <v>577.09402639346888</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-2.8235708151067911</v>
+      </c>
+      <c r="Y91">
+        <v>-3.8628071608564922</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>580.70000000000005</v>
+      </c>
+      <c r="D92">
+        <v>586.79999999999995</v>
+      </c>
+      <c r="E92">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="F92">
+        <v>567</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>573.0333333333333</v>
+      </c>
+      <c r="H92">
+        <v>576.17542958632976</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>585.23891356229706</v>
+      </c>
+      <c r="K92">
+        <v>566.02601317687993</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>41.557255133978686</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.7000000000000455</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>21.5</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>7.9069767441862573E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>573.15192395092174</v>
+      </c>
+      <c r="W92">
+        <v>576.34632073469345</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-3.1943967837717082</v>
+      </c>
+      <c r="Y92">
+        <v>-3.7291250854395352</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>572.95000000000005</v>
+      </c>
+      <c r="D93">
+        <v>582.9</v>
+      </c>
+      <c r="E93">
+        <v>568.5</v>
+      </c>
+      <c r="F93">
+        <v>574</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>575.13333333333333</v>
+      </c>
+      <c r="H93">
+        <v>575.65438145983148</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>584.71915499289776</v>
+      </c>
+      <c r="K93">
+        <v>566.57578802646219</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>51.578950646342925</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>5.5</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>14.399999999999977</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.38194444444444503</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>573.28239718924146</v>
+      </c>
+      <c r="W93">
+        <v>576.17251919879027</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-2.8901220095488043</v>
+      </c>
+      <c r="Y93">
+        <v>-3.5613244702613889</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>578.75</v>
+      </c>
+      <c r="D94">
+        <v>589</v>
+      </c>
+      <c r="E94">
+        <v>574.70000000000005</v>
+      </c>
+      <c r="F94">
+        <v>581.9</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>581.86666666666667</v>
+      </c>
+      <c r="H94">
+        <v>578.76052406324902</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>585.67045388336487</v>
+      </c>
+      <c r="K94">
+        <v>568.38116846502612</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>61.010749834296377</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>7.1999999999999318</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>14.299999999999955</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.50349650349650032</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>574.60818223705041</v>
+      </c>
+      <c r="W94">
+        <v>576.59677703591694</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-1.9885947988665293</v>
+      </c>
+      <c r="Y94">
+        <v>-3.2467785359824171</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>583</v>
+      </c>
+      <c r="D95">
+        <v>588.5</v>
+      </c>
+      <c r="E95">
+        <v>572.70000000000005</v>
+      </c>
+      <c r="F95">
+        <v>577.5</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>579.56666666666672</v>
+      </c>
+      <c r="H95">
+        <v>579.16359536495793</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>586.29924190928375</v>
+      </c>
+      <c r="K95">
+        <v>569.34090880613144</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>53.725027832930564</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>4.7999999999999545</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>15.799999999999955</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.30379746835442839</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>575.05307727750414</v>
+      </c>
+      <c r="W95">
+        <v>576.66368244066382</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-1.6106051631596756</v>
+      </c>
+      <c r="Y95">
+        <v>-2.9195438614178686</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>576</v>
+      </c>
+      <c r="D96">
+        <v>582.6</v>
+      </c>
+      <c r="E96">
+        <v>574</v>
+      </c>
+      <c r="F96">
+        <v>576.79999999999995</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>577.79999999999995</v>
+      </c>
+      <c r="H96">
+        <v>578.48179768247894</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>585.47718815166513</v>
+      </c>
+      <c r="K96">
+        <v>570.37626240476891</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>52.478777409882461</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.7999999999999545</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>8.6000000000000227</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.32558139534883107</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>575.32183461942657</v>
+      </c>
+      <c r="W96">
+        <v>576.67378003765168</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-1.3519454182251138</v>
+      </c>
+      <c r="Y96">
+        <v>-2.6060241727793176</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>574</v>
+      </c>
+      <c r="D97">
+        <v>574</v>
+      </c>
+      <c r="E97">
+        <v>561.1</v>
+      </c>
+      <c r="F97">
+        <v>566</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>567.0333333333333</v>
+      </c>
+      <c r="H97">
+        <v>572.75756550790607</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>582.9267018957396</v>
+      </c>
+      <c r="K97">
+        <v>568.31487075926475</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>36.258088305709705</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>4.8999999999999773</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>12.899999999999977</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.37984496124030898</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>573.88770621643789</v>
+      </c>
+      <c r="W97">
+        <v>575.88312966449234</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-1.9954234480544528</v>
+      </c>
+      <c r="Y97">
+        <v>-2.4839040278343445</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>567.54999999999995</v>
+      </c>
+      <c r="D98">
+        <v>574.9</v>
+      </c>
+      <c r="E98">
+        <v>555.5</v>
+      </c>
+      <c r="F98">
+        <v>559.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>563.30000000000007</v>
+      </c>
+      <c r="H98">
+        <v>568.02878275395301</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>581.14299036335296</v>
+      </c>
+      <c r="K98">
+        <v>565.4671217016504</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>29.417531765636777</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>19.399999999999977</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.20618556701030952</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>571.67421295237057</v>
+      </c>
+      <c r="W98">
+        <v>574.66956450415955</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-2.9953515517889855</v>
+      </c>
+      <c r="Y98">
+        <v>-2.5861935326252725</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>562</v>
+      </c>
+      <c r="D99">
+        <v>565</v>
+      </c>
+      <c r="E99">
+        <v>553.04999999999995</v>
+      </c>
+      <c r="F99">
+        <v>555.4</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>557.81666666666661</v>
+      </c>
+      <c r="H99">
+        <v>562.92272471030981</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>577.5556591714967</v>
+      </c>
+      <c r="K99">
+        <v>562.70776132350591</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N99">
+        <v>25.608220597936622</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>2.3500000000000227</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>11.950000000000045</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.19665271966527312</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V99">
+        <v>569.17048788277509</v>
+      </c>
+      <c r="W99">
+        <v>573.24218935570332</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-4.0717014729282255</v>
+      </c>
+      <c r="Y99">
+        <v>-2.883295120685863</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>557</v>
+      </c>
+      <c r="D100">
+        <v>559.45000000000005</v>
+      </c>
+      <c r="E100">
+        <v>546.20000000000005</v>
+      </c>
+      <c r="F100">
+        <v>548.79999999999995</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>551.48333333333335</v>
+      </c>
+      <c r="H100">
+        <v>557.20302902182152</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>573.5321793556086</v>
+      </c>
+      <c r="K100">
+        <v>559.03936991828243</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>20.314930930544392</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.5999999999999091</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>13.25</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.19622641509433275</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>566.03656667004043</v>
+      </c>
+      <c r="W100">
+        <v>571.43165681083644</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-5.3950901407960146</v>
+      </c>
+      <c r="Y100">
+        <v>-3.3856541247078935</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="35"/>
+        <v>557.95000000000005</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="36"/>
+        <v>554.4</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="37"/>
+        <v>552.85</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="38"/>
+        <v>551.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>549</v>
+      </c>
+      <c r="D101">
+        <v>549</v>
+      </c>
+      <c r="E101">
+        <v>534.70000000000005</v>
+      </c>
+      <c r="F101">
+        <v>537</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>540.23333333333335</v>
+      </c>
+      <c r="H101">
+        <v>548.71818117757743</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>568.0805839432511</v>
+      </c>
+      <c r="K101">
+        <v>553.63062104755306</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>13.895783177347781</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999545</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>14.299999999999955</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.16083916083915817</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V101">
+        <v>561.56940256695725</v>
+      </c>
+      <c r="W101">
+        <v>568.88116371373746</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-7.3117611467802135</v>
+      </c>
+      <c r="Y101">
+        <v>-4.1708755291223572</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="35"/>
+        <v>547.35</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="36"/>
+        <v>543.55000000000007</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="37"/>
+        <v>541.85</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="38"/>
+        <v>540.15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>533</v>
+      </c>
+      <c r="D102">
+        <v>534</v>
+      </c>
+      <c r="E102">
+        <v>506.8</v>
+      </c>
+      <c r="F102">
+        <v>507.95</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>516.25</v>
+      </c>
+      <c r="H102">
+        <v>532.48409058878872</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>560.50712084475083</v>
+      </c>
+      <c r="K102">
+        <v>543.22381637031901</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>7.0451844271194801</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.1499999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>27.199999999999989</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>4.2279411764705066E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>553.32026371050233</v>
+      </c>
+      <c r="W102">
+        <v>564.36774417938659</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-11.04748046888426</v>
+      </c>
+      <c r="Y102">
+        <v>-5.5461965170747378</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>530.9</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>523.6</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>520.4</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>517.20000000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>509.35</v>
+      </c>
+      <c r="D103">
+        <v>510</v>
+      </c>
+      <c r="E103">
+        <v>492</v>
+      </c>
+      <c r="F103">
+        <v>498</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>500</v>
+      </c>
+      <c r="H103">
+        <v>516.2420452943943</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>549.28331621258394</v>
+      </c>
+      <c r="K103">
+        <v>531.84074606580373</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>5.8173083372547261</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>544.80945390888655</v>
+      </c>
+      <c r="W103">
+        <v>559.45161498091352</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-14.642161072026965</v>
+      </c>
+      <c r="Y103">
+        <v>-7.3653894280651837</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>495.1</v>
+      </c>
+      <c r="D104">
+        <v>495.1</v>
+      </c>
+      <c r="E104">
+        <v>476.1</v>
+      </c>
+      <c r="F104">
+        <v>480.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>483.90000000000003</v>
+      </c>
+      <c r="H104">
+        <v>500.0710226471972</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>537.24257927645419</v>
+      </c>
+      <c r="K104">
+        <v>519.45391360673625</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>4.2057913696915001</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.23157894736841986</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>534.91569176905784</v>
+      </c>
+      <c r="W104">
+        <v>553.60334720454955</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-18.687655435491706</v>
+      </c>
+      <c r="Y104">
+        <v>-9.6298426295504882</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>483</v>
+      </c>
+      <c r="D105">
+        <v>491</v>
+      </c>
+      <c r="E105">
+        <v>466.4</v>
+      </c>
+      <c r="F105">
+        <v>471.1</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>476.16666666666669</v>
+      </c>
+      <c r="H105">
+        <v>488.11884465693197</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>526.96645054835324</v>
+      </c>
+      <c r="K105">
+        <v>507.6641550274615</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>3.5461988758294982</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>4.7000000000000455</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>24.600000000000023</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.19105691056910737</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>525.09789303535661</v>
+      </c>
+      <c r="W105">
+        <v>547.4919881523607</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-22.394095117004099</v>
+      </c>
+      <c r="Y105">
+        <v>-12.18269312704121</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>488.20000000000005</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>481.6</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>478.70000000000005</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>475.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>474</v>
+      </c>
+      <c r="D106">
+        <v>481.6</v>
+      </c>
+      <c r="E106">
+        <v>466.65</v>
+      </c>
+      <c r="F106">
+        <v>479.5</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>475.91666666666669</v>
+      </c>
+      <c r="H106">
+        <v>482.01775566179936</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>516.88501709316358</v>
+      </c>
+      <c r="K106">
+        <v>498.54989835469229</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>17.924370044429441</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>12.850000000000023</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.85953177257524971</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>518.08283256837865</v>
+      </c>
+      <c r="W106">
+        <v>542.45554458551919</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-24.372712017140543</v>
+      </c>
+      <c r="Y106">
+        <v>-14.620696905061077</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>472.6</v>
+      </c>
+      <c r="D107">
+        <v>488</v>
+      </c>
+      <c r="E107">
+        <v>470.5</v>
+      </c>
+      <c r="F107">
+        <v>481.15</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>479.88333333333338</v>
+      </c>
+      <c r="H107">
+        <v>480.9505444975664</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>510.46612440579389</v>
+      </c>
+      <c r="K107">
+        <v>492.3165876092051</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>20.822389935305623</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>10.649999999999977</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>17.5</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.60857142857142732</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>512.40085832708962</v>
+      </c>
+      <c r="W107">
+        <v>537.91439313473995</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-25.513534807650331</v>
+      </c>
+      <c r="Y107">
+        <v>-16.799264485578927</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
